--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1084,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
